--- a/medicine/Mort/Cimetière_de_Chilvert/Cimetière_de_Chilvert.xlsx
+++ b/medicine/Mort/Cimetière_de_Chilvert/Cimetière_de_Chilvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chilvert</t>
+          <t>Cimetière_de_Chilvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Chilvert est le plus ancien cimetière de Poitiers. Créé en 1797, il a
-été construit sur le terrain confisqué d'une ancienne maison de plaisance d'un chanoine de Saint-Hilaire[1]. Il couvre 6 hectares[2] et sa partie ancienne est arborée[2]. Elle abrite un cèdre du Liban, probablement planté lors de sa création[2], classé arbre remarquable de France. 
+été construit sur le terrain confisqué d'une ancienne maison de plaisance d'un chanoine de Saint-Hilaire. Il couvre 6 hectares et sa partie ancienne est arborée. Elle abrite un cèdre du Liban, probablement planté lors de sa création, classé arbre remarquable de France. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chilvert</t>
+          <t>Cimetière_de_Chilvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Monument</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière abrite un monument au réseau de résistance Louis Renard et ses 52 morts pour la France[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière abrite un monument au réseau de résistance Louis Renard et ses 52 morts pour la France
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chilvert</t>
+          <t>Cimetière_de_Chilvert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,18 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Charles Bailly (1871-1901), agent de police à Paris qui mourut noyé dans la Seine en tentant de sauver une femme qui venait de s'y jeter. La rue de l'Agent-Bailly dans le 9e arrondissement de Paris a été nommée d'après lui.
-Olivier Bourbeau (1811-1877), doyen de la faculté de Poitiers, député puis sénateur et ministre de l'Instruction publique de 1869 à 1870[2]
+Olivier Bourbeau (1811-1877), doyen de la faculté de Poitiers, député puis sénateur et ministre de l'Instruction publique de 1869 à 1870
 Louis-François-Marie Bellin de La Liborlière (1774-1847), écrivain, auteur de romans gothiques
-Charles Cochon de Lapparent (1750-1825), homme politique sous la Révolution, le Consulat et l'Empire[2]
-Sylvain Drault (1795-1848), avocat et député[2]
-Paul Guillon (1913-1965), médecin militaire et homme politique, compagnon de la Libération[2]
-Camille de La Croix (1831-1911), prêtre jésuite belge, professeur de musique et archéologue[2]
+Charles Cochon de Lapparent (1750-1825), homme politique sous la Révolution, le Consulat et l'Empire
+Sylvain Drault (1795-1848), avocat et député
+Paul Guillon (1913-1965), médecin militaire et homme politique, compagnon de la Libération
+Camille de La Croix (1831-1911), prêtre jésuite belge, professeur de musique et archéologue
 Claude-Arnould Poute (1730-1806), amiral et aristocrate
 Robert Thuillier (1910-2004), photographe et globe-trotter</t>
         </is>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chilvert</t>
+          <t>Cimetière_de_Chilvert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Cénotaphe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gaston Hulin (1882-1944), homme politique et résistant, mort en déportation[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gaston Hulin (1882-1944), homme politique et résistant, mort en déportation</t>
         </is>
       </c>
     </row>
